--- a/GunfireDungeon_Godot/excel/RoleBase@角色属性.xlsx
+++ b/GunfireDungeon_Godot/excel/RoleBase@角色属性.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27360" windowHeight="14685"/>
+    <workbookView windowWidth="24765" windowHeight="14685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
   <si>
     <t>Id</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>RealResist</t>
+  </si>
+  <si>
+    <t>AsBurningResist</t>
+  </si>
+  <si>
+    <t>AsPoisoningResist</t>
   </si>
   <si>
     <t>表Id</t>
@@ -174,6 +180,12 @@
   </si>
   <si>
     <t>暗影属性伤害抗性</t>
+  </si>
+  <si>
+    <t>燃烧异常状态抗性</t>
+  </si>
+  <si>
+    <t>中毒异常状态抗性</t>
   </si>
   <si>
     <t>string</t>
@@ -245,7 +257,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +281,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -738,137 +757,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -886,6 +905,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1198,12 +1223,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="X1" sqref="X1"/>
+      <selection pane="topRight" activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1226,10 +1251,11 @@
     <col min="21" max="21" width="16.5" style="5" customWidth="1"/>
     <col min="22" max="22" width="15.5" style="5" customWidth="1"/>
     <col min="23" max="23" width="16.125" style="5" customWidth="1"/>
-    <col min="24" max="24" width="21.5" customWidth="1"/>
+    <col min="24" max="24" width="21.5" style="6" customWidth="1"/>
+    <col min="25" max="25" width="27" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23" customHeight="1" spans="1:23">
+    <row r="1" ht="23" customHeight="1" spans="1:25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1299,158 +1325,176 @@
       <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="X1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" ht="129" customHeight="1" spans="1:23">
+    <row r="2" ht="129" customHeight="1" spans="1:25">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="S2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="W2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>39</v>
+      <c r="X2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="3" ht="30" customHeight="1" spans="1:23">
+    <row r="3" ht="30" customHeight="1" spans="1:25">
       <c r="A3" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>48</v>
+      <c r="Y3" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="4" ht="69" customHeight="1" spans="1:23">
+    <row r="4" ht="69" customHeight="1" spans="1:25">
       <c r="A4" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D4" s="4">
         <v>80</v>
@@ -1471,7 +1515,7 @@
         <v>27</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K4" s="4">
         <v>2</v>
@@ -1508,19 +1552,25 @@
       </c>
       <c r="W4" s="5">
         <v>1</v>
+      </c>
+      <c r="X4" s="6">
+        <v>30</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>30</v>
       </c>
     </row>
     <row r="5" ht="69" customHeight="1"/>
     <row r="6" ht="69" customHeight="1"/>
     <row r="7" ht="69" customHeight="1" spans="1:23">
       <c r="A7" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D7" s="4">
         <v>1000</v>
@@ -1560,15 +1610,15 @@
       </c>
     </row>
     <row r="8" ht="69" customHeight="1"/>
-    <row r="9" ht="30" customHeight="1" spans="1:23">
+    <row r="9" ht="30" customHeight="1" spans="1:25">
       <c r="A9" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D9" s="4">
         <v>60</v>
@@ -1601,7 +1651,7 @@
         <v>3</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P9" s="5">
         <v>1</v>
@@ -1626,14 +1676,20 @@
       </c>
       <c r="W9" s="5">
         <v>1</v>
+      </c>
+      <c r="X9" s="6">
+        <v>30</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>30</v>
       </c>
     </row>
     <row r="10" ht="34" customHeight="1" spans="2:23">
       <c r="B10" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D10" s="4">
         <v>50</v>
@@ -1666,7 +1722,7 @@
         <v>3</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="P10" s="5">
         <v>1</v>
@@ -1719,17 +1775,17 @@
   <sheetData>
     <row r="2" ht="23.25" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" ht="15" spans="2:2">
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" ht="15" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
